--- a/Assignment1GoldStandardSet.xlsx
+++ b/Assignment1GoldStandardSet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garry\Documents\school\cpsc\NLP\ass1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhsarke/Box Sync/Teaching/CS584 - Applied BioNLP/a1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD78717-0977-2F47-8CF1-9E4C96EBAB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27660" windowHeight="15880" xr2:uid="{098EF7AF-08EB-7E4E-968C-EA3C4308818C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
   <si>
     <t>hhpiv1</t>
   </si>
@@ -251,6 +252,9 @@
     <t>hxp20e</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>$$$C0015967$$$C2363731$$$C0018681$$$C0008031$$$C0917801$$$C0000000$$$</t>
   </si>
   <si>
@@ -279,9 +283,6 @@
   </si>
   <si>
     <t>$$$0$$$0$$$0$$$0$$$0$$$</t>
-  </si>
-  <si>
-    <t>$$$C0015967$$$</t>
   </si>
   <si>
     <t>$$$0$$$</t>
@@ -307,19 +308,7 @@
     <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
   </si>
   <si>
-    <t>$$$C2363731$$$C1260880$$$C0231528$$$C0600142$$$C0018681$$$C1832070$$$</t>
-  </si>
-  <si>
-    <t>$$$C0012833$$$C0015672$$$C0018681$$$C0151827$$$C2363731$$$C0741585$$$C0010200$$$C0030252$$$C0013404$$$</t>
-  </si>
-  <si>
     <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
-  </si>
-  <si>
-    <t>$$$C1832070$$$s$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$1$$$</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -329,21 +318,9 @@
 its been a week, my sense of taste and smell is back but its hard for me to breathe. i randomly get attacks of severe shortness of breath in the morning at the same time for the past 3 days. i drink alot of water, eat foods with vitamin c and try to rest after. ive also been experiencing bad insomnia and havent slept properly since ive gotten tested. my chest is tight and it feels like its burning, so do my ears (they're blocked along with bad nasal congestion) my eyes feel like they arent there at all. has anyone else experienced this? i feel like my symptoms are getting worse and im scared my organs are gonna fail and die any second. i need some words to help me...</t>
   </si>
   <si>
-    <t>$$$C2364111$$$C0013404$$$s$$$C0013404$$$C0010200$$$C0917801$$$C0235710$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
-  </si>
-  <si>
     <t>i am pretty sure i had covid in march-i was sick with a cough fever and sob, but wrote it off because my fever was low and only one day. the cough and loss of smell however, lingered for 3 weeks. 
 i've had periods since i was sick of a few days of chest discomfort, and my cardio is nowhere near it was before i was sick. i've had an period of a few days of chest discomfort (though my o2 is perfect). 
 would it be worth it to discuss with a doctor? i was never able to get a test since my symptoms weren't severe so not sure a doctor will listen to me</t>
-  </si>
-  <si>
-    <t>$$$C0010200$$$C0015967$$$C0003126$$$C0235710$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$0$$$0$$$0$$$</t>
   </si>
   <si>
     <t>$$$C2364111$$$C0003126$$$C0010200$$$</t>
@@ -439,25 +416,10 @@
 the elevated pulse and breathing has me a bit concerned. i've seen my dr twice since recovering and these weren't issues that i've had until recently. i don't understand how it would suddenly pop up 6 weeks after recovering.</t>
   </si>
   <si>
-    <t>$$$C0012833$$$C0010200$$$C0013404$$$C0235710$$$C0013404$$$C0030252$$$C0013404$$$</t>
-  </si>
-  <si>
-    <t>$$$C0020538$$$C0741585$$$C0008031$$$C0013404$$$C0000000$$$C0015672$$$C0008031$$$C0030252$$$C0231528$$$C0003862$$$C0235710$$$C0015672$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
-  </si>
-  <si>
     <t>hi! so i'm a 30 year old female. no prior health conditions. i got covid may 4th. had only two days of a fever and  symptoms. haven't had a fever since then. never developed a cough. i still have no sense of smell. &amp; i have the feeling that i need to yawn or take a good breath in all day. when does that go away?!
 but i had the oddest thing happen last night. had been laying down all day in my room with the ac cause it was humid. got up to go into kitchen. and all of a sudden felt like my heart skipped, my hands and legs had tingling in them and my upper lip, i was dizzy and shaking. my oxygen was at 100??? i was panicking and crying. slowly calmed down but terrified. wtf is going on? my blood pressure was 98/56 but went up to 100/73. and today it's normal. it was so terrifying. my doctor said dehydration.</t>
   </si>
   <si>
-    <t>$$$C0015967$$$C0010200$$$C0003126$$$C0013404$$$C0013404$$$C0030252$$C0741585$$$C0741585$$$C0741585$$$C0012833$$$C0085593$$$C1832070$$$C0020538$$$C0011175$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$</t>
-  </si>
-  <si>
     <t>$$$C0013404$$$C0010200$$$C0010200$$$</t>
   </si>
   <si>
@@ -474,13 +436,7 @@
     <t>$$$C0013404$$$C0013404$$$C0015967$$$C0010200$$$C0013404$$$</t>
   </si>
   <si>
-    <t>$$$0$$$0$$$1$$$1$$$0$$$</t>
-  </si>
-  <si>
     <t>$$$C2363731$$$C0015967$$$C0020458$$$C0013404$$$C0000000$$$C0013404$$$</t>
-  </si>
-  <si>
-    <t>$$$0$$$1$$$0$$$0$$$1$$$0$$$</t>
   </si>
   <si>
     <t>i'm on day 15 of shortness of breath described above. day 18 of symptoms. some describe shortness of breath like there is a belt around their lungs or bricks on their chest. mine feels like i'm unable to complete a full deep breath at times. 
@@ -513,12 +469,60 @@
   </si>
   <si>
     <t>Negation Flag</t>
+  </si>
+  <si>
+    <t>$$$C0015967$$$C0020538$$$</t>
+  </si>
+  <si>
+    <t>$$$C2363731$$$C1260880$$$C0231528$$$C0600142$$$C0015967$$$C0018681$$$C1832070$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$C0000000$$$C0012833$$$C0015672$$$C0018681$$$C0151827$$$C2363731$$$C0741585$$$C0010200$$$C0030252$$$C0013404$$$C0015672$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$C1832070$$$</t>
+  </si>
+  <si>
+    <t>$$$C2364111$$$C0013404$$$C0000000$$$C0013404$$$C0010200$$$C0917801$$$C0013404$$$C0013404$$$C0917801$$$C0235710$$$C0008031$$$C0013456$$$C1260880$$$C0000000$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$C0010200$$$C0015967$$$C0013404$$$C0010200$$$C0003126$$$C0235710$$$$</t>
+  </si>
+  <si>
+    <t>$$$1$$$0$$$0$$$0$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$C0012833$$$C0010200$$$C0013404$$$C0235710$$$C0013404$$$C0030252$$$</t>
+  </si>
+  <si>
+    <t>$$$C0020538$$$C0741585$$$C0008031$$$C0013404$$$C0015672$$$C0008031$$$C0030252$$$C0231528$$$C0003862$$$C0235710$$$C0015672$$$</t>
+  </si>
+  <si>
+    <t>$$$C0015967$$$C0010200$$$C0003126$$$C0013404$$$C0013404$$$C0030252$$C0741585$$$C0741585$$$C0741585$$$C0012833$$$C0085593$$$C1832070$$$C0000000$$$C0011175$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$0$$$1$$$0$$$0$$$</t>
+  </si>
+  <si>
+    <t>$$$0$$$1$$$0$$$0$$$0$$$0$$$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -556,12 +560,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,507 +883,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE070F3B-E4CD-1846-8D0B-DAA0BE0C0247}">
+  <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="B376" sqref="B376"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="79.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="155" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="279" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="341" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="155" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="403" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="155" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="341" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="155" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="356" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="372" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="404" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="387.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="186" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="C29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="124" x14ac:dyDescent="0.35">
+      <c r="C31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="C32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B376" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
